--- a/databaseschema/database_schema.xlsx
+++ b/databaseschema/database_schema.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="980" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="25880" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="Also__User_Pass_and_Login_ID_are_functionally_dependent_on_ID">Sheet1!$C$74</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="75">
   <si>
     <t>Database schema in third normal form</t>
   </si>
@@ -141,36 +144,15 @@
     <t>explanation</t>
   </si>
   <si>
-    <t>In the mini_board table, id is primary key and unique.  Id determines name, text, time</t>
-  </si>
-  <si>
     <t>AssessmentID is independent from id, therefore AssessmentID should be separated by name,text, time.</t>
   </si>
   <si>
-    <t>Thus, all non key attributes are fully functional dependent only on the primary key.</t>
-  </si>
-  <si>
-    <t>assessment table</t>
-  </si>
-  <si>
     <t>In the assessment table, assessmentNo is primary key and unique.</t>
   </si>
   <si>
-    <t>Assessor must be allocated same number if the students' group were same. Therefore Assessor related to Group_To_Assess and Score.</t>
-  </si>
-  <si>
-    <t>Although AssessmentNo is independent from those attributes, Assessor is used to connect each table.</t>
-  </si>
-  <si>
     <t>In the score table, ScoreNo is primary key and unique.</t>
   </si>
   <si>
-    <t>Each five criteria should have unique comment and score_criteria therefore those attributes should be separated from other attributes.</t>
-  </si>
-  <si>
-    <t>AssessmentNo determines which group assesses the other group, thus AsssessmentNo is a foreign key of the ScoreNo table.</t>
-  </si>
-  <si>
     <t>In the user table, UserID is primary key and unique.</t>
   </si>
   <si>
@@ -180,9 +162,6 @@
     <t>Thefore, User_Level is functionally dependent on UserID.</t>
   </si>
   <si>
-    <t>FirstName,LastName,Email, User_Pass, Login_Id and GroupNo is functionally dependent on UserID.</t>
-  </si>
-  <si>
     <t>In the report table, reportNo is primary key and unique.</t>
   </si>
   <si>
@@ -190,6 +169,84 @@
   </si>
   <si>
     <t>Intro, Main,Conclusion means Xml file contents and these are also functionally dependent on ReportNo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assessment </t>
+  </si>
+  <si>
+    <t>Assessment</t>
+  </si>
+  <si>
+    <t>Entityname</t>
+  </si>
+  <si>
+    <t>assessment</t>
+  </si>
+  <si>
+    <t>there is no relation between assessor, group_To_assess and score.</t>
+  </si>
+  <si>
+    <t>Although sssessor must be allocated same number if the students' group were same,</t>
+  </si>
+  <si>
+    <t>Eventually, 1nf, 2nf, 3nf are same entity.</t>
+  </si>
+  <si>
+    <t>In the mini_board table, id is primary key and unique.  Id determines name, text and time.</t>
+  </si>
+  <si>
+    <t>However, there is any dependencies between non-key attributes both two entities.</t>
+  </si>
+  <si>
+    <t>Thus, 3NF is same as 2NF.</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>Therfore, there are two entities, id and assessment.</t>
+  </si>
+  <si>
+    <t>Each five criteria must have unique comment and score_criteria therefore those attributes should be separated from other attributes.</t>
+  </si>
+  <si>
+    <t>AssessmentNo determines which group assesses the other group, thus AsssessmentNo is a foreign key of the score entity</t>
+  </si>
+  <si>
+    <t>Non-key attribute is depending on the scoreNo, therefore 2NF is same as 1NF.</t>
+  </si>
+  <si>
+    <t>Non-key attribute is depending on the reportNo, therefore 2NF is same as 1NF.</t>
+  </si>
+  <si>
+    <t>Non-key attribute is depending on the userID, therefore 2NF is same as 1NF.</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>xml</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>userlevel</t>
+  </si>
+  <si>
+    <t>loginId</t>
+  </si>
+  <si>
+    <t>Also, User_Pass and Login_ID are functionally dependent on UserID</t>
+  </si>
+  <si>
+    <t>FirstName,LastName,Email and GroupNo are functionally dependent on UserID.</t>
+  </si>
+  <si>
+    <t>GroupNo is functionally dependent on ReportNo.</t>
   </si>
 </sst>
 </file>
@@ -299,17 +356,15 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="121">
+  <cellStyleXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -431,22 +486,65 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="121">
+  <cellStyles count="165">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -507,6 +605,28 @@
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -567,6 +687,28 @@
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -896,18 +1038,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -918,13 +1060,19 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>1</v>
       </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
@@ -939,123 +1087,100 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="C9" s="9"/>
-      <c r="D9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" s="7"/>
+      <c r="D11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="C11" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="11" t="s">
-        <v>45</v>
+      <c r="C12" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="C13" s="11" t="s">
-        <v>46</v>
+      <c r="C13" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>13</v>
+      <c r="C15" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
@@ -1066,464 +1191,739 @@
       <c r="E18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="C19" s="9"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="C21" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="C22" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="C27" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="C28" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="C29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="C30" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="C28" s="9"/>
-      <c r="D28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="C30" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="C31" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+    <row r="34" spans="1:13">
+      <c r="C34" s="7"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>6</v>
       </c>
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
       <c r="C35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="C36" s="7"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="C39" s="7"/>
+      <c r="D39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="C41" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="C42" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="C43" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="E46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M46" s="5"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="C47" s="7"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="D48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="J48" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="K48" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N35" s="4" t="s">
+      <c r="L48" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" t="s">
+      <c r="M48" s="5"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="C49" s="7"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="B50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="B51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="D51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="B52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="E52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="H52" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="6"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="F37" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="F38" s="9"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" t="s">
+      <c r="I52" s="5"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="F53" s="7"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="C40" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="C41" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="C42" s="11"/>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" t="s">
+      <c r="C54" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="C55" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="C56" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="C57" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="C58" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="C59" s="9"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
-      <c r="A44" t="s">
+    <row r="61" spans="1:14">
+      <c r="A61" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="B61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E61" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F61" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G61" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H61" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="I61" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J61" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
-      <c r="A45" t="s">
+    <row r="62" spans="1:14">
+      <c r="C62" s="7"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D63" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="E63" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="C64" s="7"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="D65" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F65" s="7"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="E66" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="F66" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="G66" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="E67" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L45" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" t="s">
+    </row>
+    <row r="68" spans="1:12">
+      <c r="C68" s="7"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3">
-      <c r="C49" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3">
-      <c r="C50" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3">
-      <c r="C51" s="11" t="s">
-        <v>53</v>
+      <c r="C69" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="C70" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="C71" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="C72" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="C73" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="C74" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/databaseschema/database_schema.xlsx
+++ b/databaseschema/database_schema.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="80">
   <si>
     <t>Database schema in third normal form</t>
   </si>
@@ -247,6 +247,21 @@
   </si>
   <si>
     <t>GroupNo is functionally dependent on ReportNo.</t>
+  </si>
+  <si>
+    <t>AverageScore</t>
+  </si>
+  <si>
+    <t>In the group table, GroupNo is primary key and unique.</t>
+  </si>
+  <si>
+    <t>Non-key attribute is depending on the GroupNo, therefore 2NF is same as 1NF.</t>
+  </si>
+  <si>
+    <t>There are no functionally dependent between primary key and non-key attribute.</t>
+  </si>
+  <si>
+    <t>Thus, 1nf, 2nf, 3nf are same entity.</t>
   </si>
 </sst>
 </file>
@@ -364,8 +379,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="165">
+  <cellStyleXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -544,7 +573,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="165">
+  <cellStyles count="179">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -627,6 +656,13 @@
     <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -709,6 +745,13 @@
     <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1038,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1926,6 +1969,82 @@
         <v>72</v>
       </c>
     </row>
+    <row r="76" spans="1:12">
+      <c r="A76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>67</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="C84" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="C85" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="C86" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="C87" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
